--- a/data/trans_camb/PCS12_SP_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R2-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/PCS12_SP_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R2-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12)</t>
+          <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,43</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,22</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,67</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,89</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,91; 15,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,48; 21,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,62; 27,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,87; 3,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,12; 10,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,08; 8,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,52; 5,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,13; 12,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,51; 15,19</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,47%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,64%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,66%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,74%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,63%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,67; 44,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,02; 58,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,1; 75,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,62; 5,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,27; 19,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,62; 16,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,4; 12,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,66; 27,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,41; 32,54</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,62</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,74</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,73</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,84</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,88; 8,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,45; 4,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,32; 12,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,76; 2,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,87; -0,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,9; 1,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,28; 4,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,98; 1,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,23; 5,91</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,09%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,18%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,48%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,69%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,36; 21,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,45; 11,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,84; 31,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,52; 5,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,1; -1,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,98; 2,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,32; 8,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,42; 2,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,26; 12,33</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,98</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,43</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,62</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,09</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,99</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,13; 9,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,02; 1,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,77; 11,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,82; -0,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,17; -9,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,88; -6,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,89; 3,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,37; -5,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,62; -0,36</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,26%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,26%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,62%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,51%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,18%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,98%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,25; 25,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,74; 5,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,81; 30,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,7; -1,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,94; -15,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,77; -10,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,51; 6,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,86; -10,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,89; -0,75</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,87</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,29</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,17</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,79</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,97</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,99</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,8; -0,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,16; -1,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,15; 4,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,75; 1,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,71; -2,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,44; 13,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,03; -1,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,89; -3,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,16; 11,74</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,56%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,46%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,56%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,34%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,71%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,59%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,49%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,3%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,38; -0,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,65; -2,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,78; 9,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,6; 1,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,08; -5,16</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,96; 24,99</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,75; -2,69</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,22; -6,64</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,72; 23,72</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,57</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,67</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,47</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,07</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,62</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,61; 7,6</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,96; -1,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,82; 14,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,08; 5,73</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,9; -3,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,81; 6,08</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,95; 5,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,18; -4,12</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,06; 8,58</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,11%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,76%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,66%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,56%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,57%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,68; 18,76</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,15; -2,7</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,45; 35,21</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,5; 11,14</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,9; -7,45</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,14; 11,62</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; 11,47</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,21; -8,81</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,99; 18,22</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,63</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,23</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,44</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 3,98</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,88; -1,12</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,26; 7,46</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,27; -0,42</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,41; -6,74</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,78; 2,16</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,44; 1,08</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,19; -4,72</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 3,3</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,52%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,85%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,17%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,25%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,38%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,9%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,36%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,37; 9,66</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,47; -2,68</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,96; 17,72</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,99; -0,74</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,85; -12,1</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,05; 3,59</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,77; 2,21</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,04; -9,52</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,71; 6,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/PCS12_SP_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R2-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,22</t>
+          <t>8,14</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-9,67</t>
+          <t>-4,04</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>-5,86</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-4,24</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,89</t>
+          <t>2,69</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 15,56</t>
+          <t>-2,86; 7,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 21,45</t>
+          <t>-4,95; 5,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 27,85</t>
+          <t>2,39; 13,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-22,87; 3,09</t>
+          <t>-9,51; 0,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,12; 10,02</t>
+          <t>-11,54; -0,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 8,74</t>
+          <t>-7,96; 1,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 5,7</t>
+          <t>-4,15; 2,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 12,47</t>
+          <t>-6,44; 0,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 15,19</t>
+          <t>-1,65; 5,99</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,13%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>30,47%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-16,64%</t>
+          <t>-7,05%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-3,66%</t>
+          <t>-10,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,74%</t>
+          <t>-5,09%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-8,37%</t>
+          <t>-1,46%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>-5,26%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>5,39%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,67; 44,01</t>
+          <t>-6,38; 18,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 58,86</t>
+          <t>-10,84; 13,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 75,44</t>
+          <t>5,29; 33,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-35,62; 5,27</t>
+          <t>-15,8; 1,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,27; 19,7</t>
+          <t>-19,21; -1,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,62; 16,79</t>
+          <t>-12,95; 2,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-24,4; 12,48</t>
+          <t>-8,14; 6,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,66; 27,88</t>
+          <t>-12,52; 2,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 32,54</t>
+          <t>-3,14; 12,33</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>10,33</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>-4,98</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-6,62</t>
+          <t>-13,43</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>-9,89</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-3,73</t>
+          <t>-8,09</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>0,16</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 8,5</t>
+          <t>0,13; 9,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 4,68</t>
+          <t>-7,02; 1,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 12,78</t>
+          <t>-4,06; 35,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 2,91</t>
+          <t>-9,82; -0,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,87; -0,54</t>
+          <t>-18,17; -9,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 1,56</t>
+          <t>-14,11; -5,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 4,07</t>
+          <t>-3,89; 3,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 1,01</t>
+          <t>-11,37; -5,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 5,91</t>
+          <t>-7,46; 17,65</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>11,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,09%</t>
+          <t>-7,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>26,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-5,18%</t>
+          <t>-8,26%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,57%</t>
+          <t>-22,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,54%</t>
+          <t>-16,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-0,09%</t>
+          <t>-0,51%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-7,48%</t>
+          <t>-16,18%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>0,32%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 21,59</t>
+          <t>0,25; 25,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 11,88</t>
+          <t>-16,74; 5,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,84; 31,73</t>
+          <t>-10,27; 91,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 5,24</t>
+          <t>-15,7; -1,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,1; -1,08</t>
+          <t>-28,94; -15,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,98; 2,8</t>
+          <t>-22,67; -9,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 8,49</t>
+          <t>-7,51; 6,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,42; 2,11</t>
+          <t>-21,86; -10,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 12,33</t>
+          <t>-14,95; 35,63</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>-5,87</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>-6,29</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,98</t>
+          <t>-4,17</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-13,43</t>
+          <t>-7,79</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-10,62</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-4,97</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-8,09</t>
+          <t>-6,99</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-4,99</t>
+          <t>2,23</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,13; 9,43</t>
+          <t>-11,8; -0,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 1,98</t>
+          <t>-12,16; -1,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 11,34</t>
+          <t>-7,57; 3,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,82; -0,82</t>
+          <t>-9,75; 1,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-18,17; -9,28</t>
+          <t>-13,71; -2,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,88; -6,05</t>
+          <t>-8,48; 21,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 3,07</t>
+          <t>-9,03; -1,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,37; -5,08</t>
+          <t>-10,89; -3,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,62; -0,36</t>
+          <t>-5,64; 20,18</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>-12,56%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,0%</t>
+          <t>-13,46%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>-4,17%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-8,26%</t>
+          <t>-7,34%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-22,29%</t>
+          <t>-13,71%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-17,62%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-0,51%</t>
+          <t>-9,59%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-16,18%</t>
+          <t>-13,49%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-9,98%</t>
+          <t>4,31%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,25; 25,25</t>
+          <t>-23,38; -0,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,74; 5,33</t>
+          <t>-24,65; -2,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 30,45</t>
+          <t>-15,35; 8,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-15,7; -1,54</t>
+          <t>-16,6; 1,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,94; -15,73</t>
+          <t>-23,08; -5,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-23,77; -10,3</t>
+          <t>-14,77; 39,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 6,23</t>
+          <t>-16,75; -2,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-21,86; -10,27</t>
+          <t>-20,22; -6,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-16,89; -0,75</t>
+          <t>-10,6; 39,74</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-5,87</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-6,29</t>
+          <t>-5,57</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>10,21</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,17</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-7,79</t>
+          <t>-8,47</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-4,97</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-6,99</t>
+          <t>-7,07</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>4,51</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,8; -0,47</t>
+          <t>-1,61; 7,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,16; -1,1</t>
+          <t>-9,96; -1,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 4,21</t>
+          <t>5,2; 14,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 1,07</t>
+          <t>-3,08; 5,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,71; -2,95</t>
+          <t>-12,9; -3,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 13,79</t>
+          <t>-11,61; 4,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-9,03; -1,3</t>
+          <t>-0,95; 5,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-10,89; -3,19</t>
+          <t>-10,18; -4,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 11,74</t>
+          <t>-2,85; 7,81</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-12,56%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-13,46%</t>
+          <t>-13,11%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-3,56%</t>
+          <t>24,04%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-7,34%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-13,71%</t>
+          <t>-15,66%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>-1,27%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-9,59%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-13,49%</t>
+          <t>-14,56%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-0,3%</t>
+          <t>9,29%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-23,38; -0,93</t>
+          <t>-3,68; 18,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-24,65; -2,26</t>
+          <t>-22,15; -2,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-14,78; 9,82</t>
+          <t>11,49; 36,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-16,6; 1,95</t>
+          <t>-5,5; 11,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,08; -5,16</t>
+          <t>-22,9; -7,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-12,96; 24,99</t>
+          <t>-20,61; 8,87</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-16,75; -2,69</t>
+          <t>-1,91; 11,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-20,22; -6,64</t>
+          <t>-20,21; -8,81</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 23,72</t>
+          <t>-5,64; 16,58</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-5,57</t>
+          <t>-3,63</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>9,67</t>
+          <t>7,22</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-8,47</t>
+          <t>-9,23</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-7,07</t>
+          <t>-6,44</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>5,62</t>
+          <t>2,4</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 7,6</t>
+          <t>-1,03; 3,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,96; -1,07</t>
+          <t>-5,88; -1,12</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,82; 14,18</t>
+          <t>2,37; 18,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 5,73</t>
+          <t>-5,27; -0,42</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-12,9; -3,83</t>
+          <t>-11,41; -6,74</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 6,08</t>
+          <t>-6,65; 6,21</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 5,42</t>
+          <t>-2,44; 1,08</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-10,18; -4,12</t>
+          <t>-8,19; -4,72</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,06; 8,58</t>
+          <t>-0,95; 8,87</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-13,11%</t>
+          <t>-8,52%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>22,76%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>-4,85%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-15,66%</t>
+          <t>-16,17%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>-4,09%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>-1,38%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-14,56%</t>
+          <t>-12,9%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>4,81%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 18,76</t>
+          <t>-2,37; 9,66</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-22,15; -2,7</t>
+          <t>-13,47; -2,68</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>10,45; 35,21</t>
+          <t>5,42; 42,77</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 11,14</t>
+          <t>-8,99; -0,74</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-22,9; -7,45</t>
+          <t>-19,85; -12,1</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 11,62</t>
+          <t>-11,59; 11,04</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 11,47</t>
+          <t>-4,77; 2,21</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-20,21; -8,81</t>
+          <t>-16,04; -9,52</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>3,99; 18,22</t>
+          <t>-1,84; 17,7</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,42</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-3,63</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>4,15</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-2,76</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-9,23</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-2,99</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-0,69</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-6,44</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-1,03; 3,98</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-5,88; -1,12</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>1,26; 7,46</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-5,27; -0,42</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-11,41; -6,74</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-5,78; 2,16</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-2,44; 1,08</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-8,19; -4,72</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-1,36; 3,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>3,33%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-8,52%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>9,74%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-4,85%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-16,17%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-5,25%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-1,38%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-12,9%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>1,36%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-2,37; 9,66</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-13,47; -2,68</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>2,96; 17,72</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-8,99; -0,74</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-19,85; -12,1</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-10,05; 3,59</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-4,77; 2,21</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-16,04; -9,52</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-2,71; 6,7</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/PCS12_SP_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R2-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 7,45</t>
+          <t>-2,61; 8,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 5,46</t>
+          <t>-4,41; 5,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,39; 13,47</t>
+          <t>3,12; 14,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 0,85</t>
+          <t>-8,96; 0,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,54; -0,85</t>
+          <t>-11,43; -0,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 1,49</t>
+          <t>-7,45; 2,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 2,83</t>
+          <t>-4,27; 3,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 0,92</t>
+          <t>-6,58; 1,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 5,99</t>
+          <t>-0,99; 6,5</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 18,44</t>
+          <t>-6,02; 20,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 13,25</t>
+          <t>-9,8; 15,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,29; 33,07</t>
+          <t>6,92; 35,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,8; 1,57</t>
+          <t>-14,91; 1,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,21; -1,56</t>
+          <t>-19,2; -1,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 2,8</t>
+          <t>-12,48; 3,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 6,01</t>
+          <t>-8,36; 7,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,52; 2,07</t>
+          <t>-12,63; 2,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 12,33</t>
+          <t>-1,89; 13,62</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 9,43</t>
+          <t>-0,17; 9,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 1,98</t>
+          <t>-7,53; 1,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 35,67</t>
+          <t>-4,26; 33,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,82; -0,82</t>
+          <t>-9,18; -0,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,17; -9,28</t>
+          <t>-17,86; -8,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,11; -5,28</t>
+          <t>-14,15; -5,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 3,07</t>
+          <t>-3,69; 2,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,37; -5,08</t>
+          <t>-11,21; -4,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 17,65</t>
+          <t>-7,07; 16,57</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 25,25</t>
+          <t>-0,57; 24,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,74; 5,33</t>
+          <t>-17,29; 3,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 91,5</t>
+          <t>-10,47; 88,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,7; -1,54</t>
+          <t>-14,67; -0,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,94; -15,73</t>
+          <t>-28,59; -15,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,67; -9,12</t>
+          <t>-22,52; -9,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 6,23</t>
+          <t>-7,22; 5,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-21,86; -10,27</t>
+          <t>-21,69; -9,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-14,95; 35,63</t>
+          <t>-14,08; 34,43</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,8; -0,47</t>
+          <t>-11,12; -0,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,16; -1,1</t>
+          <t>-11,42; -0,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 3,86</t>
+          <t>-7,62; 3,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 1,07</t>
+          <t>-9,63; 0,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,71; -2,95</t>
+          <t>-13,03; -2,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 21,68</t>
+          <t>-9,16; 24,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,03; -1,3</t>
+          <t>-9,13; -0,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,89; -3,19</t>
+          <t>-10,62; -3,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 20,18</t>
+          <t>-6,08; 19,12</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-23,38; -0,93</t>
+          <t>-22,62; -0,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-24,65; -2,26</t>
+          <t>-23,16; -2,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-15,35; 8,91</t>
+          <t>-15,62; 8,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-16,6; 1,95</t>
+          <t>-16,06; 1,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-23,08; -5,16</t>
+          <t>-22,01; -4,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 39,97</t>
+          <t>-15,95; 43,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,75; -2,69</t>
+          <t>-16,86; -1,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-20,22; -6,64</t>
+          <t>-19,94; -7,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 39,74</t>
+          <t>-11,52; 38,2</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 7,6</t>
+          <t>-1,89; 7,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,96; -1,07</t>
+          <t>-10,07; -1,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,2; 14,86</t>
+          <t>5,5; 14,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 5,73</t>
+          <t>-3,27; 5,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,9; -3,83</t>
+          <t>-12,91; -3,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,61; 4,68</t>
+          <t>-11,59; 4,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 5,42</t>
+          <t>-1,31; 5,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-10,18; -4,12</t>
+          <t>-10,0; -3,8</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 7,81</t>
+          <t>-2,18; 8,16</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 18,76</t>
+          <t>-4,44; 17,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,15; -2,7</t>
+          <t>-22,66; -3,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11,49; 36,74</t>
+          <t>12,43; 36,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 11,14</t>
+          <t>-5,84; 10,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-22,9; -7,45</t>
+          <t>-22,8; -7,57</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-20,61; 8,87</t>
+          <t>-20,41; 8,55</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 11,47</t>
+          <t>-2,67; 11,04</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-20,21; -8,81</t>
+          <t>-20,05; -8,07</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 16,58</t>
+          <t>-3,6; 17,41</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 3,98</t>
+          <t>-1,2; 3,77</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,88; -1,12</t>
+          <t>-6,19; -1,13</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,37; 18,24</t>
+          <t>2,64; 19,39</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,27; -0,42</t>
+          <t>-5,23; -0,3</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-11,41; -6,74</t>
+          <t>-11,7; -6,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 6,21</t>
+          <t>-6,39; 6,39</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 1,08</t>
+          <t>-2,33; 1,06</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-8,19; -4,72</t>
+          <t>-8,16; -4,81</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 8,87</t>
+          <t>-1,05; 8,91</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 9,66</t>
+          <t>-2,7; 9,16</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-13,47; -2,68</t>
+          <t>-14,04; -2,73</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>5,42; 42,77</t>
+          <t>6,17; 46,13</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-8,99; -0,74</t>
+          <t>-9,0; -0,55</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-19,85; -12,1</t>
+          <t>-20,12; -12,3</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 11,04</t>
+          <t>-11,14; 11,3</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 2,21</t>
+          <t>-4,66; 2,17</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-16,04; -9,52</t>
+          <t>-16,09; -9,77</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 17,7</t>
+          <t>-2,11; 17,86</t>
         </is>
       </c>
     </row>
